--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_22_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_22_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92750.98649506932</v>
+        <v>17147312.41677763</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92750.98649506932</v>
+        <v>17147312.41677763</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>74188.06111404872</v>
+        <v>9425955.618289696</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74188.06111404872</v>
+        <v>9425955.618289696</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1608921838.979107</v>
+        <v>56192422.62135603</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12837.84610132095</v>
+        <v>1306853.918847992</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24866.71958063661</v>
+        <v>2489670.262215046</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36895.59305995226</v>
+        <v>3672486.605582101</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50999.4229937186</v>
+        <v>4585985.57290853</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63194.50679729629</v>
+        <v>5745009.621903811</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75389.59060087398</v>
+        <v>6904033.670899092</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>87655.58711436848</v>
+        <v>8098600.923793591</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99854.73297303575</v>
+        <v>9282355.393943066</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>113867.766464658</v>
+        <v>10173835.19427812</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>125983.5026689732</v>
+        <v>11349873.53804064</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>138082.8453875355</v>
+        <v>12523467.30771169</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>150182.1926527646</v>
+        <v>13697061.07738274</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>162281.5399179937</v>
+        <v>14870654.8470538</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>176194.4402091649</v>
+        <v>15761115.40436535</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>196187.2703376861</v>
+        <v>15987040.15659319</v>
       </c>
     </row>
   </sheetData>
